--- a/biology/Médecine/Triade_de_Virchow/Triade_de_Virchow.xlsx
+++ b/biology/Médecine/Triade_de_Virchow/Triade_de_Virchow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La triade de Virchow, du nom de Rudolf Virchow, est, en médecine, l’association de trois facteurs favorisant la thrombose :
 Variations hémodynamiques (stase, turbulence) ;
@@ -513,7 +525,9 @@
           <t>La triade</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La triade est constituée de ces trois éléments:
 </t>
@@ -544,14 +558,16 @@
           <t>Autres facteurs de thrombose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chacun de ces facteurs allant dans le sens d'un des éléments de la triade de Virchow
 lésion endothéliale : plaque d'athérosclérose, dysfonction endothéliale
 stase ou turbulence sanguine : immobilisation prolongée, varices, compression extrinsèque sur la veine, insuffisance cardiaque, fibrillation auriculaire (dans ce cas le sang stagne dans les oreillettes), fibrillation ventriculaire...
 hypercoagulabilité du sang : déficit héréditaire en inhibiteurs de la coagulation (antithrombine, protéine C, protéine S), grossesse, cancer, syndrome des antiphospholipides.
 Tabac.
-Certaines pilules contraceptives pourraient également faire courir ce risque à leurs utilisatrices[1].</t>
+Certaines pilules contraceptives pourraient également faire courir ce risque à leurs utilisatrices.</t>
         </is>
       </c>
     </row>
